--- a/data/Estadisticas-MCD.xlsx
+++ b/data/Estadisticas-MCD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliowaissman/Documents/cursos/IC-MCD-Unison/streamlit-mcd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC05EF52-04F3-124E-BA6A-256B87B64E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7045F549-69F3-3C44-8744-92E654820B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <r>
       <rPr>
@@ -262,6 +262,16 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2024-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
@@ -389,6 +399,16 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
@@ -439,6 +459,16 @@
         <family val="2"/>
       </rPr>
       <t>Frecuencia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>31/03/2024</t>
     </r>
   </si>
 </sst>
@@ -503,13 +533,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,39 +572,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -623,7 +656,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -734,13 +767,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -749,6 +775,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -813,11 +846,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -825,9 +878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -899,16 +954,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
         <v>31</v>
@@ -923,7 +978,7 @@
         <v>26</v>
       </c>
       <c r="L5" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" s="2">
         <v>19</v>
@@ -932,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1040,16 +1095,16 @@
         <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2">
         <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="2">
         <v>94</v>
@@ -1074,6 +1129,53 @@
       </c>
       <c r="O8" s="2">
         <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
+        <v>84</v>
+      </c>
+      <c r="E9" s="2">
+        <v>82</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>83</v>
+      </c>
+      <c r="I9" s="2">
+        <v>58</v>
+      </c>
+      <c r="J9" s="2">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2">
+        <v>56</v>
+      </c>
+      <c r="L9" s="2">
+        <v>83</v>
+      </c>
+      <c r="M9" s="2">
+        <v>15</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0"/>
   </sheetViews>
@@ -1097,12 +1199,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -1111,27 +1213,27 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -1149,15 +1251,15 @@
         <v>16</v>
       </c>
       <c r="H5" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -1175,15 +1277,15 @@
         <v>15</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -1192,24 +1294,24 @@
         <v>18</v>
       </c>
       <c r="E7" s="2">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2">
         <v>16</v>
       </c>
-      <c r="F7" s="2">
-        <v>12</v>
-      </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -1218,15 +1320,41 @@
         <v>16</v>
       </c>
       <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="2">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1238,19 +1366,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="6" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -1261,16 +1390,36 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
